--- a/backend/database/TKB-HKI-2023-2024.xlsx
+++ b/backend/database/TKB-HKI-2023-2024.xlsx
@@ -6774,7 +6774,7 @@
         <v>4-5</v>
       </c>
       <c r="U71" t="str">
-        <v>PM</v>
+        <v>503-T1</v>
       </c>
       <c r="W71" t="str">
         <v>Nguyễn Bảo Ngọc</v>
@@ -7267,7 +7267,7 @@
         <v>8-10</v>
       </c>
       <c r="U77" t="str">
-        <v>PM</v>
+        <v>502-T2</v>
       </c>
       <c r="W77" t="str">
         <v>Đỗ Thanh Hà</v>
@@ -7353,7 +7353,7 @@
         <v>8-10</v>
       </c>
       <c r="U78" t="str">
-        <v>PM</v>
+        <v>503-T2</v>
       </c>
       <c r="W78" t="str">
         <v>Đỗ Thanh Hà</v>
@@ -7525,7 +7525,7 @@
         <v>8-10</v>
       </c>
       <c r="U80" t="str">
-        <v>PM</v>
+        <v>501-T4</v>
       </c>
       <c r="W80" t="str">
         <v>Nguyễn Tuấn Anh</v>
@@ -7611,7 +7611,7 @@
         <v>8-10</v>
       </c>
       <c r="U81" t="str">
-        <v>PM</v>
+        <v>509-T4</v>
       </c>
       <c r="W81" t="str">
         <v>Đỗ Duy Đạo</v>
@@ -7964,7 +7964,7 @@
         <v>6-10</v>
       </c>
       <c r="U85" t="str">
-        <v>PM</v>
+        <v>511-T2</v>
       </c>
       <c r="V85" t="str">
         <v>Tiếng Việt</v>
@@ -8052,7 +8052,7 @@
         <v>6-10</v>
       </c>
       <c r="U86" t="str">
-        <v>PM</v>
+        <v>512-T2</v>
       </c>
       <c r="V86" t="str">
         <v>Tiếng Việt</v>
@@ -8229,7 +8229,7 @@
         <v>6-9</v>
       </c>
       <c r="U88" t="str">
-        <v>PM</v>
+        <v>513-T1</v>
       </c>
       <c r="V88" t="str">
         <v>Tiếng Việt</v>
@@ -8321,7 +8321,7 @@
         <v>6-9</v>
       </c>
       <c r="U89" t="str">
-        <v>PM</v>
+        <v>514-T1</v>
       </c>
       <c r="V89" t="str">
         <v>Tiếng Việt</v>
@@ -8502,7 +8502,7 @@
         <v>6-10</v>
       </c>
       <c r="U91" t="str">
-        <v>PM</v>
+        <v>514-T4</v>
       </c>
       <c r="V91" t="str">
         <v>Tiếng Việt</v>
@@ -8594,7 +8594,7 @@
         <v>6-10</v>
       </c>
       <c r="U92" t="str">
-        <v>PM</v>
+        <v>515-T5</v>
       </c>
       <c r="V92" t="str">
         <v>Tiếng Việt</v>
@@ -8775,7 +8775,7 @@
         <v>1-5</v>
       </c>
       <c r="U94" t="str">
-        <v>PM</v>
+        <v>411-T4</v>
       </c>
       <c r="V94" t="str">
         <v>Tiếng Việt</v>
@@ -8863,7 +8863,7 @@
         <v>1-5</v>
       </c>
       <c r="U95" t="str">
-        <v>PM</v>
+        <v>412=T4</v>
       </c>
       <c r="V95" t="str">
         <v>Tiếng Việt</v>
@@ -9040,7 +9040,7 @@
         <v>1-5</v>
       </c>
       <c r="U97" t="str">
-        <v>PM</v>
+        <v>412-T2</v>
       </c>
       <c r="V97" t="str">
         <v>Tiếng Việt</v>
@@ -9132,7 +9132,7 @@
         <v>1-5</v>
       </c>
       <c r="U98" t="str">
-        <v>PM</v>
+        <v>413-T3</v>
       </c>
       <c r="V98" t="str">
         <v>Tiếng Việt</v>
@@ -9497,7 +9497,7 @@
         <v>1-2</v>
       </c>
       <c r="U102" t="str">
-        <v>PM</v>
+        <v>404-T5</v>
       </c>
       <c r="V102" t="str">
         <v>Tiếng Anh</v>
@@ -9585,7 +9585,7 @@
         <v>1-2</v>
       </c>
       <c r="U103" t="str">
-        <v>PM</v>
+        <v>405-T5</v>
       </c>
       <c r="V103" t="str">
         <v>Tiếng Anh</v>
@@ -10027,10 +10027,10 @@
         <v>6</v>
       </c>
       <c r="T108" t="str">
-        <v>11</v>
+        <v>1-5</v>
       </c>
       <c r="U108" t="str">
-        <v>PM</v>
+        <v>512-T4</v>
       </c>
       <c r="V108" t="str">
         <v>Tiếng Việt</v>
@@ -10119,10 +10119,10 @@
         <v>6</v>
       </c>
       <c r="T109" t="str">
-        <v>11</v>
+        <v>1-5</v>
       </c>
       <c r="U109" t="str">
-        <v>PM</v>
+        <v>513-T4</v>
       </c>
       <c r="V109" t="str">
         <v>Tiếng Việt</v>

--- a/backend/database/TKB-HKI-2023-2024.xlsx
+++ b/backend/database/TKB-HKI-2023-2024.xlsx
@@ -14497,7 +14497,7 @@
         <v>6</v>
       </c>
       <c r="T158" t="str">
-        <v>13</v>
+        <v>1-3</v>
       </c>
       <c r="U158" t="str">
         <v>502-T4</v>
